--- a/temp/TDK_ Price Pages [FR & ES].xlsx
+++ b/temp/TDK_ Price Pages [FR & ES].xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lionliang/PycharmProjects/pythonProject/20220406/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F935EB9-75F4-E141-BCC9-BF3D97F9C18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A806480-5EC4-BF4E-9FD1-5693C7E590CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1580" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FR" sheetId="1" r:id="rId1"/>
     <sheet name="ES" sheetId="2" r:id="rId2"/>
     <sheet name="IT" sheetId="3" r:id="rId3"/>
     <sheet name="NL" sheetId="4" r:id="rId4"/>
+    <sheet name="PT" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="687">
   <si>
     <t>URL</t>
   </si>
@@ -2034,12 +2035,180 @@
   <si>
     <t>{0} koers, {0} koers, realtime (live) {0} koers chart, {0} USD</t>
   </si>
+  <si>
+    <t>https://www.kucoin.com/pt/price/BTC</t>
+  </si>
+  <si>
+    <t>Bitcoin (BTC) | Bitcoin hoje | Cotação do Bitcoin | KuCoin</t>
+  </si>
+  <si>
+    <t>Acompanhe o preço do BTC em tempo real. Na KuCoin, você encontra a cotação e informações sobre como funciona esse ativo. Invista e negocie com mais segurança!</t>
+  </si>
+  <si>
+    <t>Bitcoin, BTC, Bitcoin hoje, BTC hoje, Bitcoin cotação</t>
+  </si>
+  <si>
+    <t>https://www.kucoin.com/pt/price/ETH</t>
+  </si>
+  <si>
+    <t>Ethereum (ETH) | Valor do Ether | Ethereum hoje | KuCoin</t>
+  </si>
+  <si>
+    <t>Acompanhe o preço do ETH em tempo real. Na KuCoin, você encontra a cotação e informações sobre como funciona esse ativo. Invista e negocie com mais segurança!</t>
+  </si>
+  <si>
+    <t>Ethereum, Ethereum hoje, Ethereum valor, Ethereum cotação, Ethereum para real</t>
+  </si>
+  <si>
+    <t>https://www.kucoin.com/pt/price/LUNC</t>
+  </si>
+  <si>
+    <t>Terra Classic (LUNC) | LUNC Preço | LUNC valor | KuCoin</t>
+  </si>
+  <si>
+    <t>Acompanhe o preço da LUNC em tempo real. Na KuCoin, você encontra a cotação e informações sobre como funciona esse ativo. Invista e negocie com mais segurança!</t>
+  </si>
+  <si>
+    <t>LUNC preço, LUNC valor, Terra LUNC</t>
+  </si>
+  <si>
+    <t>https://www.kucoin.com/pt/price/LUNA</t>
+  </si>
+  <si>
+    <t>Terra (LUNA) | LUNA Cripto | LUNA preço | LUNA hoje | KuCoin</t>
+  </si>
+  <si>
+    <t>Acompanhe o preço da LUNA em tempo real. Na KuCoin, você encontra a cotação e informações sobre como funciona esse ativo. Invista e negocie com mais segurança!</t>
+  </si>
+  <si>
+    <t>Luna preço, LUNA hoje, LUNA cripto, Token LUNA</t>
+  </si>
+  <si>
+    <t>https://www.kucoin.com/pt/price/USTC</t>
+  </si>
+  <si>
+    <t>Terra Classic USD (USTC) | USTC preço | USTC valor | KuCoin</t>
+  </si>
+  <si>
+    <t>Acompanhe o preço do USTC em tempo real. Na KuCoin, você encontra a cotação e informações sobre como funciona esse ativo. Invista e negocie com mais segurança!</t>
+  </si>
+  <si>
+    <t>USTC, USTC preço, Terra Classic</t>
+  </si>
+  <si>
+    <t>https://www.kucoin.com/pt/price/KCS</t>
+  </si>
+  <si>
+    <t>KuCoin Token (KCS) | Token da KuCoin | Benefícios | KuCoin</t>
+  </si>
+  <si>
+    <t>Acompanhe o preço do KCS em tempo real. Na KuCoin, você encontra a cotação e informações sobre como funciona esse ativo. Invista e negocie com mais segurança!</t>
+  </si>
+  <si>
+    <t>KCS, KuCoin Token, Token da KuCoin</t>
+  </si>
+  <si>
+    <t>https://www.kucoin.com/pt/price/TRX</t>
+  </si>
+  <si>
+    <t>Tron (TRX) | Tron hoje | TRX preço | TRX para real | KuCoin</t>
+  </si>
+  <si>
+    <t>Acompanhe o preço da Tron em tempo real. Na KuCoin, você encontra a cotação e informações sobre como funciona esse ativo. Invista e negocie com mais segurança!</t>
+  </si>
+  <si>
+    <t>TRX, Tron, TRX hoje, Tron hoje, TRX Preço</t>
+  </si>
+  <si>
+    <t>https://www.kucoin.com/pt/price/XLM</t>
+  </si>
+  <si>
+    <t>Stellar (XLM) | Stellar hoje | Stellar preço ao vivo | KuCoin</t>
+  </si>
+  <si>
+    <t>Acompanhe o preço da Stellar em tempo real. Na KuCoin, você encontra a cotação e informações sobre como funciona esse ativo. Invista e negocie com mais segurança!</t>
+  </si>
+  <si>
+    <t>Stellar, XLM, Stellar hoje, Stellar preço, XLM hoje</t>
+  </si>
+  <si>
+    <t>https://www.kucoin.com/pt/price/USDC</t>
+  </si>
+  <si>
+    <t>USD Coin (USDC) | USD Coin hoje | USDC preço | KuCoin</t>
+  </si>
+  <si>
+    <t>Acompanhe o preço da USDC em tempo real. Na KuCoin, você encontra a cotação e informações sobre como funciona esse ativo. Invista e negocie com mais segurança!</t>
+  </si>
+  <si>
+    <t>USDC, USD coin, USD coin hoje, USDC preço, USDC preço</t>
+  </si>
+  <si>
+    <t>https://www.kucoin.com/pt/price/ALGO</t>
+  </si>
+  <si>
+    <t>Algorand (ALGO) | Algorand hoje | Token ALGO | KuCoin</t>
+  </si>
+  <si>
+    <t>Acompanhe o preço da Algorand em tempo real. Na KuCoin, você encontra a cotação e informações sobre como funciona esse ativo. Invista e negocie com mais segurança!</t>
+  </si>
+  <si>
+    <t>Algorand, Algorand hoje, ALGO usd, ALGO token</t>
+  </si>
+  <si>
+    <t>https://www.kucoin.com/pt/price/SHIB</t>
+  </si>
+  <si>
+    <t>Shiba Inu Coin (SHIB) | Shiba Inu preço | Shiba Inu hoje | KuCoin</t>
+  </si>
+  <si>
+    <t>Acompanhe o preço da SHIB em tempo real. Na KuCoin, você encontra a cotação e informações sobre como funciona esse ativo. Invista e negocie com mais segurança!</t>
+  </si>
+  <si>
+    <t>Shiba inu coin, Shiba inu hoje, Shiba inu preço, SHIB, Shiba Inu cotação</t>
+  </si>
+  <si>
+    <t>https://www.kucoin.com/pt/price/DOGE</t>
+  </si>
+  <si>
+    <t>Dogecoin (DOGE) | Dogecoin hoje | Dogecoin cotação | KuCoin</t>
+  </si>
+  <si>
+    <t>Acompanhe o preço da Dogecoin em tempo real. Na KuCoin, você encontra a cotação e informações sobre como funciona esse ativo. Invista e negocie com mais segurança!</t>
+  </si>
+  <si>
+    <t>Dogecoin, Dogecoin hoje, Dogecoin cotação, Dogecoin preço, Doge hoje</t>
+  </si>
+  <si>
+    <t>https://www.kucoin.com/pt/price/SOL</t>
+  </si>
+  <si>
+    <t>Solana (SOL) | Solana preço | Solana hoje | Token SOL | KuCoin</t>
+  </si>
+  <si>
+    <t>Acompanhe o preço da Solana em tempo real. Na KuCoin, você encontra a cotação e informações sobre como funciona esse ativo. Invista e negocie com mais segurança!</t>
+  </si>
+  <si>
+    <t>Solana hoje, Solana preço, Solana cotação, SOL hoje, Token SOL</t>
+  </si>
+  <si>
+    <t>{0} hoje | {0} preço | {0} valor | {0} para real | KuCoin</t>
+  </si>
+  <si>
+    <t>https://www.kucoin.com/pt/price/{0}</t>
+  </si>
+  <si>
+    <t>Acompanhe os preços de {0} em tempo real. Na KuCoin você encontra a cotação e informações sobre como funciona esse ativo. Invista e negocie com mais segurança!</t>
+  </si>
+  <si>
+    <t>{0} hoje,{0} preço,{0} valor,{0} cotação,{0} em real</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2122,6 +2291,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2159,7 +2341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2172,6 +2354,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2394,7 +2582,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -32306,8 +32494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437D58AC-C793-A848-AF9C-601D2244968A}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -32380,4 +32568,252 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB75DBC-0F9D-734D-B674-DB110FD4F1D5}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="55.83203125" customWidth="1"/>
+    <col min="2" max="2" width="61.1640625" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" customWidth="1"/>
+    <col min="4" max="4" width="74.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="23" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="23" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="23" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="23" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="23" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="23" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="23" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="23" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="23" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="23" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="23" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="23" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="23" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="23" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>686</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{9AE98DEC-FEB8-2947-92A6-4F859E63CE51}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{B10F3E18-B411-0746-8C8C-2637ACA20DC5}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{D45FD0A3-D701-0040-BDAC-3B0DBD0C06C9}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{2A44D2FC-2AD8-244D-A12D-B8B9D1A43FB9}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{65054FA4-1BE9-F045-BA03-891E0B6380C1}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{A1A2FEC3-D60F-A441-9A39-4F1C8E917671}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{81829527-74EC-664B-9527-CA39D0E4E9C5}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{EC27F51B-4C63-4341-BFFD-712254E3F81A}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{07CD121F-F6A1-934E-9F64-97F2F30F4BA0}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{6E873174-A5C9-CB48-BECB-4C696BF8881C}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{98BCA429-A10E-C047-AE23-6619AB78D5BE}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{2BDFEAC8-1AF2-FF41-A026-7CFD5540A897}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{BC73E2E9-CEBB-B74D-ACD8-E0D672BE558B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>